--- a/Carbon Limitation Summary.xlsx
+++ b/Carbon Limitation Summary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArangoC\Dropbox\Cincinnati-R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArangoC\Documents\R Files\Cinn R dev\Cincy-Carbon-Limitation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="2205" yWindow="2295" windowWidth="24240" windowHeight="13560" activeTab="2"/>
+    <workbookView xWindow="2205" yWindow="2295" windowWidth="24240" windowHeight="13560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="3" r:id="rId1"/>
@@ -18785,13 +18785,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L725"/>
+  <dimension ref="A1:M725"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F503" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="H669" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J486" sqref="J486:L486"/>
+      <selection pane="bottomRight" activeCell="M718" sqref="M718"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18805,7 +18805,7 @@
     <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
         <f>'[1]Metabolism Data'!A1</f>
         <v>Index</v>
@@ -18850,7 +18850,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>'[1]Metabolism Data'!A396</f>
         <v>395</v>
@@ -18899,8 +18899,12 @@
         <f>AVERAGE(H2:H9,H34:H41)</f>
         <v>3.5273700336902873</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>STDEV(H2:H9,H34:H41)/SQRT(COUNT(H2:H9,H34:H41))</f>
+        <v>0.37225208671481197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>'[1]Metabolism Data'!A397</f>
         <v>396</v>
@@ -18934,7 +18938,7 @@
         <v>3.5521582548532518</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>'[1]Metabolism Data'!A398</f>
         <v>397</v>
@@ -18968,7 +18972,7 @@
         <v>3.2672456131311578</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>'[1]Metabolism Data'!A399</f>
         <v>398</v>
@@ -19002,7 +19006,7 @@
         <v>3.0217844668517397</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>'[1]Metabolism Data'!A400</f>
         <v>399</v>
@@ -19036,7 +19040,7 @@
         <v>2.5139858906574015</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>'[1]Metabolism Data'!A401</f>
         <v>400</v>
@@ -19070,7 +19074,7 @@
         <v>3.4153499168223975</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>'[1]Metabolism Data'!A402</f>
         <v>401</v>
@@ -19104,7 +19108,7 @@
         <v>1.4403022712549736</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>'[1]Metabolism Data'!A403</f>
         <v>402</v>
@@ -19138,7 +19142,7 @@
         <v>1.529921798458765</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>'[1]Metabolism Data'!A404</f>
         <v>403</v>
@@ -19187,8 +19191,12 @@
         <f t="shared" si="1"/>
         <v>2.9806949325279826</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <f>STDEV(H10:H17,H42:H49)/SQRT(COUNT(H10:H17,H42:H49))</f>
+        <v>0.57318745620292799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>'[1]Metabolism Data'!A405</f>
         <v>404</v>
@@ -19222,7 +19230,7 @@
         <v>3.7767364583058547</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>'[1]Metabolism Data'!A406</f>
         <v>405</v>
@@ -19256,7 +19264,7 @@
         <v>4.4241792085837419</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>'[1]Metabolism Data'!A407</f>
         <v>406</v>
@@ -19290,7 +19298,7 @@
         <v>1.0467784683310113</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>'[1]Metabolism Data'!A408</f>
         <v>407</v>
@@ -19324,7 +19332,7 @@
         <v>2.1700425232547751</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>'[1]Metabolism Data'!A409</f>
         <v>408</v>
@@ -19358,7 +19366,7 @@
         <v>1.7011971956666208</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>'[1]Metabolism Data'!A410</f>
         <v>409</v>
@@ -19392,7 +19400,7 @@
         <v>3.7856228654543149</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>'[1]Metabolism Data'!A411</f>
         <v>410</v>
@@ -19426,7 +19434,7 @@
         <v>3.8687316286847571</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>'[1]Metabolism Data'!A380</f>
         <v>379</v>
@@ -19466,7 +19474,7 @@
         <v>20.415326314917227</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>'[1]Metabolism Data'!A381</f>
         <v>380</v>
@@ -19498,7 +19506,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>'[1]Metabolism Data'!A382</f>
         <v>381</v>
@@ -19530,7 +19538,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>'[1]Metabolism Data'!A383</f>
         <v>382</v>
@@ -19562,7 +19570,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>'[1]Metabolism Data'!A384</f>
         <v>383</v>
@@ -19594,7 +19602,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>'[1]Metabolism Data'!A385</f>
         <v>384</v>
@@ -19626,7 +19634,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>'[1]Metabolism Data'!A386</f>
         <v>385</v>
@@ -19658,7 +19666,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>'[1]Metabolism Data'!A387</f>
         <v>386</v>
@@ -19690,7 +19698,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>'[1]Metabolism Data'!A388</f>
         <v>387</v>
@@ -19739,8 +19747,12 @@
         <f>AVERAGE(H26:H33,H58:H65)</f>
         <v>3.1500705103621849</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f>STDEV(H26:H33,H58:H65)/SQRT(COUNT(H26:H33,H58:H65))</f>
+        <v>0.49736707607623282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>'[1]Metabolism Data'!A389</f>
         <v>388</v>
@@ -19774,7 +19786,7 @@
         <v>2.2959469559483408</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>'[1]Metabolism Data'!A390</f>
         <v>389</v>
@@ -19808,7 +19820,7 @@
         <v>3.8359143243887819</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>'[1]Metabolism Data'!A391</f>
         <v>390</v>
@@ -19842,7 +19854,7 @@
         <v>2.9448732427731379</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>'[1]Metabolism Data'!A392</f>
         <v>391</v>
@@ -19872,7 +19884,7 @@
         <v>1.2201947699103834</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>'[1]Metabolism Data'!A393</f>
         <v>392</v>
@@ -19906,7 +19918,7 @@
         <v>4.0415369181276306</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>'[1]Metabolism Data'!A394</f>
         <v>393</v>
@@ -21024,7 +21036,7 @@
         <v>1.9034473295645309</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>'[1]Metabolism Data'!A360</f>
         <v>359</v>
@@ -21058,7 +21070,7 @@
         <v>3.4041097142364016</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>'[1]Metabolism Data'!A431</f>
         <v>430</v>
@@ -21107,8 +21119,12 @@
         <f>AVERAGE(H66:H73,H98:H105)</f>
         <v>1.999700161293116</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f>STDEV(H66:H73)/SQRT(COUNT(H66:H73))</f>
+        <v>0.34387242279358043</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>'[1]Metabolism Data'!A432</f>
         <v>431</v>
@@ -21142,7 +21158,7 @@
         <v>3.3138193646026073</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>'[1]Metabolism Data'!A433</f>
         <v>432</v>
@@ -21176,7 +21192,7 @@
         <v>1.5776791714040708</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>'[1]Metabolism Data'!A434</f>
         <v>433</v>
@@ -21210,7 +21226,7 @@
         <v>1.1839653310856504</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>'[1]Metabolism Data'!A435</f>
         <v>434</v>
@@ -21244,7 +21260,7 @@
         <v>0.60802167971435295</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>'[1]Metabolism Data'!A436</f>
         <v>435</v>
@@ -21278,7 +21294,7 @@
         <v>1.7431579927438219</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>'[1]Metabolism Data'!A437</f>
         <v>436</v>
@@ -21312,7 +21328,7 @@
         <v>2.4416737130037465</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>'[1]Metabolism Data'!A438</f>
         <v>437</v>
@@ -21346,7 +21362,7 @@
         <v>3.3232386309709399</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <f>'[1]Metabolism Data'!A439</f>
         <v>438</v>
@@ -21395,8 +21411,12 @@
         <f>AVERAGE(H74:H81)</f>
         <v>2.6199307070004672</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <f>STDEV(H74:H81)/SQRT(COUNT(H74:H81))</f>
+        <v>0.47271036090844487</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <f>'[1]Metabolism Data'!A440</f>
         <v>439</v>
@@ -21430,7 +21450,7 @@
         <v>1.9255571516842118</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <f>'[1]Metabolism Data'!A441</f>
         <v>440</v>
@@ -21464,7 +21484,7 @@
         <v>4.5000641123993077</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <f>'[1]Metabolism Data'!A442</f>
         <v>441</v>
@@ -21498,7 +21518,7 @@
         <v>0.99966338518016196</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>'[1]Metabolism Data'!A443</f>
         <v>442</v>
@@ -21532,7 +21552,7 @@
         <v>2.6136892939720289</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>'[1]Metabolism Data'!A444</f>
         <v>443</v>
@@ -21566,7 +21586,7 @@
         <v>2.5040368173983696</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>'[1]Metabolism Data'!A445</f>
         <v>444</v>
@@ -21600,7 +21620,7 @@
         <v>4.7336863808017799</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <f>'[1]Metabolism Data'!A446</f>
         <v>445</v>
@@ -21634,7 +21654,7 @@
         <v>2.1392237482953433</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <f>'[1]Metabolism Data'!A415</f>
         <v>414</v>
@@ -21674,7 +21694,7 @@
         <v>12.183885803142307</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <f>'[1]Metabolism Data'!A416</f>
         <v>415</v>
@@ -21706,7 +21726,7 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>'[1]Metabolism Data'!A417</f>
         <v>416</v>
@@ -21738,7 +21758,7 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <f>'[1]Metabolism Data'!A418</f>
         <v>417</v>
@@ -21770,7 +21790,7 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <f>'[1]Metabolism Data'!A419</f>
         <v>418</v>
@@ -21802,7 +21822,7 @@
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <f>'[1]Metabolism Data'!A420</f>
         <v>419</v>
@@ -21834,7 +21854,7 @@
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <f>'[1]Metabolism Data'!A421</f>
         <v>420</v>
@@ -21866,7 +21886,7 @@
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <f>'[1]Metabolism Data'!A422</f>
         <v>421</v>
@@ -21898,7 +21918,7 @@
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <f>'[1]Metabolism Data'!A423</f>
         <v>422</v>
@@ -21944,11 +21964,15 @@
         <v>7.8809264776236576</v>
       </c>
       <c r="L90">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(H90:H97)</f>
         <v>2.4474014828915793</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <f>STDEV(H90:H97)/SQRT(COUNT(H90:H97))</f>
+        <v>0.57491410583995795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <f>'[1]Metabolism Data'!A424</f>
         <v>423</v>
@@ -21982,7 +22006,7 @@
         <v>3.8584988960746416</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <f>'[1]Metabolism Data'!A425</f>
         <v>424</v>
@@ -22016,7 +22040,7 @@
         <v>1.9265247837148443</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>'[1]Metabolism Data'!A426</f>
         <v>425</v>
@@ -22050,7 +22074,7 @@
         <v>5.0707336731880561</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>'[1]Metabolism Data'!A427</f>
         <v>426</v>
@@ -22084,7 +22108,7 @@
         <v>0.38427967733826857</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>'[1]Metabolism Data'!A428</f>
         <v>427</v>
@@ -22118,7 +22142,7 @@
         <v>1.9139143640881988</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>'[1]Metabolism Data'!A429</f>
         <v>428</v>
@@ -22152,7 +22176,7 @@
         <v>1.3482735060534576</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
         <f>'[1]Metabolism Data'!A430</f>
         <v>429</v>
@@ -22186,7 +22210,7 @@
         <v>3.8800095451733601</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>'[1]Metabolism Data'!A534</f>
         <v>533</v>
@@ -22235,8 +22259,12 @@
         <f>AVERAGE(H98:H104,H130:H137)</f>
         <v>2.1590986606670866</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <f>STDEV(H98:H104,H130:H137)/SQRT(COUNT(H98:H104,H130:H137))</f>
+        <v>0.10300040632126778</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
         <f>'[1]Metabolism Data'!A535</f>
         <v>534</v>
@@ -22270,7 +22298,7 @@
         <v>1.6140581653731867</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
         <f>'[1]Metabolism Data'!A536</f>
         <v>535</v>
@@ -22304,7 +22332,7 @@
         <v>1.8037671369743979</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
         <f>'[1]Metabolism Data'!A537</f>
         <v>536</v>
@@ -22338,7 +22366,7 @@
         <v>1.9946711784859077</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
         <f>'[1]Metabolism Data'!A538</f>
         <v>537</v>
@@ -22372,7 +22400,7 @@
         <v>2.0161235176501844</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
         <f>'[1]Metabolism Data'!A539</f>
         <v>538</v>
@@ -22406,7 +22434,7 @@
         <v>1.5323214229761337</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
         <f>'[1]Metabolism Data'!A540</f>
         <v>539</v>
@@ -22440,7 +22468,7 @@
         <v>2.0751806736359675</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
         <f>'[1]Metabolism Data'!A541</f>
         <v>540</v>
@@ -22489,8 +22517,12 @@
         <f t="shared" si="11"/>
         <v>2.5739329118773302</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <f>STDEV(H105:H112,H138:H144)/SQRT(COUNT(H105:H112,H138:H144))</f>
+        <v>5.9860457077701434E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
         <f>'[1]Metabolism Data'!A542</f>
         <v>541</v>
@@ -22524,7 +22556,7 @@
         <v>2.5888816452496872</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
         <f>'[1]Metabolism Data'!A543</f>
         <v>542</v>
@@ -22558,7 +22590,7 @@
         <v>2.5602269845708792</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
         <f>'[1]Metabolism Data'!A544</f>
         <v>543</v>
@@ -22592,7 +22624,7 @@
         <v>2.6194732301672636</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>'[1]Metabolism Data'!A545</f>
         <v>544</v>
@@ -22626,7 +22658,7 @@
         <v>2.3965839497818799</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>'[1]Metabolism Data'!A546</f>
         <v>545</v>
@@ -22660,7 +22692,7 @@
         <v>2.6355073867427561</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
         <f>'[1]Metabolism Data'!A547</f>
         <v>546</v>
@@ -22694,7 +22726,7 @@
         <v>2.6406747718373804</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
         <f>'[1]Metabolism Data'!A548</f>
         <v>547</v>
@@ -22728,7 +22760,7 @@
         <v>2.4963075059299982</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>'[1]Metabolism Data'!A517</f>
         <v>516</v>
@@ -22768,7 +22800,7 @@
         <v>11.551246307215109</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>'[1]Metabolism Data'!A518</f>
         <v>517</v>
@@ -22800,7 +22832,7 @@
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>'[1]Metabolism Data'!A519</f>
         <v>518</v>
@@ -22832,7 +22864,7 @@
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>'[1]Metabolism Data'!A520</f>
         <v>519</v>
@@ -22864,7 +22896,7 @@
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
         <f>'[1]Metabolism Data'!A521</f>
         <v>520</v>
@@ -22896,7 +22928,7 @@
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
         <f>'[1]Metabolism Data'!A522</f>
         <v>521</v>
@@ -22928,7 +22960,7 @@
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
         <f>'[1]Metabolism Data'!A523</f>
         <v>522</v>
@@ -22960,7 +22992,7 @@
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
         <f>'[1]Metabolism Data'!A524</f>
         <v>523</v>
@@ -22992,7 +23024,7 @@
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121">
         <f>'[1]Metabolism Data'!A525</f>
         <v>524</v>
@@ -23041,8 +23073,12 @@
         <f t="shared" ref="L121" si="12">AVERAGE(H121:H129,H154:H161)</f>
         <v>2.5140117522527898</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <f>STDEV(H121:H129,H154:H161)/SQRT(COUNT(H121:H129,H154:H161))</f>
+        <v>0.16120018130689795</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122">
         <f>'[1]Metabolism Data'!A526</f>
         <v>525</v>
@@ -23076,7 +23112,7 @@
         <v>2.3611870248963633</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123">
         <f>'[1]Metabolism Data'!A527</f>
         <v>526</v>
@@ -23110,7 +23146,7 @@
         <v>1.9459612420439576</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
         <f>'[1]Metabolism Data'!A528</f>
         <v>527</v>
@@ -23144,7 +23180,7 @@
         <v>2.5085639982895032</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
         <f>'[1]Metabolism Data'!A529</f>
         <v>528</v>
@@ -23178,7 +23214,7 @@
         <v>1.8994734847135279</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
         <f>'[1]Metabolism Data'!A530</f>
         <v>529</v>
@@ -23212,7 +23248,7 @@
         <v>2.4532988020978497</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>'[1]Metabolism Data'!A531</f>
         <v>530</v>
@@ -23246,7 +23282,7 @@
         <v>2.3647953365908378</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>'[1]Metabolism Data'!A532</f>
         <v>531</v>
@@ -24364,7 +24400,7 @@
         <v>2.5267487911192026</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <f>'[1]Metabolism Data'!A465</f>
         <v>464</v>
@@ -24413,8 +24449,12 @@
         <f t="shared" ref="L161" si="16">AVERAGE(H161:H167)</f>
         <v>3.0403315393376364</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161">
+        <f>STDEV(H161:H167)/SQRT(COUNT(H161:H167))</f>
+        <v>0.54405318547325388</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <f>'[1]Metabolism Data'!A466</f>
         <v>465</v>
@@ -24448,7 +24488,7 @@
         <v>2.6260049483058676</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <f>'[1]Metabolism Data'!A467</f>
         <v>466</v>
@@ -24482,7 +24522,7 @@
         <v>1.9155472297119343</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <f>'[1]Metabolism Data'!A468</f>
         <v>467</v>
@@ -24516,7 +24556,7 @@
         <v>2.6855303253941694</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <f>'[1]Metabolism Data'!A469</f>
         <v>468</v>
@@ -24550,7 +24590,7 @@
         <v>6.2223255009992506</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <f>'[1]Metabolism Data'!A470</f>
         <v>469</v>
@@ -24584,7 +24624,7 @@
         <v>2.3389381410826457</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <f>'[1]Metabolism Data'!A471</f>
         <v>470</v>
@@ -24618,7 +24658,7 @@
         <v>2.946877752939447</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <f>'[1]Metabolism Data'!A472</f>
         <v>471</v>
@@ -24667,8 +24707,12 @@
         <f t="shared" si="18"/>
         <v>3.0900367358461538</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168">
+        <f>STDEV(H168:H175)/SQRT(COUNT(H168:H175))</f>
+        <v>0.33690650313250603</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <f>'[1]Metabolism Data'!A473</f>
         <v>472</v>
@@ -24702,7 +24746,7 @@
         <v>2.0366400973016319</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <f>'[1]Metabolism Data'!A474</f>
         <v>473</v>
@@ -24736,7 +24780,7 @@
         <v>2.1891111428841947</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <f>'[1]Metabolism Data'!A475</f>
         <v>474</v>
@@ -24770,7 +24814,7 @@
         <v>2.8415157367329527</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <f>'[1]Metabolism Data'!A476</f>
         <v>475</v>
@@ -24804,7 +24848,7 @@
         <v>2.5638843963326323</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <f>'[1]Metabolism Data'!A477</f>
         <v>476</v>
@@ -24838,7 +24882,7 @@
         <v>3.8174459319274283</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <f>'[1]Metabolism Data'!A478</f>
         <v>477</v>
@@ -24872,7 +24916,7 @@
         <v>3.3978271823032249</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <f>'[1]Metabolism Data'!A479</f>
         <v>478</v>
@@ -24906,7 +24950,7 @@
         <v>4.9464132161553671</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <f>'[1]Metabolism Data'!A450</f>
         <v>449</v>
@@ -24946,7 +24990,7 @@
         <v>12.396521477126894</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <f>'[1]Metabolism Data'!A451</f>
         <v>450</v>
@@ -24978,7 +25022,7 @@
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <f>'[1]Metabolism Data'!A452</f>
         <v>451</v>
@@ -25010,7 +25054,7 @@
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <f>'[1]Metabolism Data'!A453</f>
         <v>452</v>
@@ -25042,7 +25086,7 @@
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <f>'[1]Metabolism Data'!A454</f>
         <v>453</v>
@@ -25070,7 +25114,7 @@
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <f>'[1]Metabolism Data'!A455</f>
         <v>454</v>
@@ -25102,7 +25146,7 @@
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <f>'[1]Metabolism Data'!A456</f>
         <v>455</v>
@@ -25134,7 +25178,7 @@
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <f>'[1]Metabolism Data'!A457</f>
         <v>456</v>
@@ -25183,8 +25227,12 @@
         <f t="shared" ref="L183" si="20">AVERAGE(H183:H190)</f>
         <v>3.3537088404431086</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183">
+        <f>STDEV(H183:H190)/SQRT(COUNT(H183:H190))</f>
+        <v>0.26352614658927714</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <f>'[1]Metabolism Data'!A458</f>
         <v>457</v>
@@ -25218,7 +25266,7 @@
         <v>2.1965982343077473</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <f>'[1]Metabolism Data'!A459</f>
         <v>458</v>
@@ -25252,7 +25300,7 @@
         <v>3.2330492596038818</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <f>'[1]Metabolism Data'!A460</f>
         <v>459</v>
@@ -25282,7 +25330,7 @@
         <v>4.0269560689499944</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <f>'[1]Metabolism Data'!A461</f>
         <v>460</v>
@@ -25316,7 +25364,7 @@
         <v>4.3577469018550206</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <f>'[1]Metabolism Data'!A462</f>
         <v>461</v>
@@ -25350,7 +25398,7 @@
         <v>2.608102586619014</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <f>'[1]Metabolism Data'!A463</f>
         <v>462</v>
@@ -25384,7 +25432,7 @@
         <v>4.0336898515024391</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <f>'[1]Metabolism Data'!A464</f>
         <v>463</v>
@@ -25418,7 +25466,7 @@
         <v>3.1943680928678515</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <f>'[1]Metabolism Data'!A268</f>
         <v>267</v>
@@ -25467,8 +25515,12 @@
         <f t="shared" si="22"/>
         <v>7.2457754837702826</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191">
+        <f>STDEV(H191:H198,H223:H228)/SQRT(COUNT(H191:H198,H223:H228))</f>
+        <v>0.58271673045918337</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <f>'[1]Metabolism Data'!A269</f>
         <v>268</v>
@@ -25502,7 +25554,7 @@
         <v>8.4063800434126179</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
         <f>'[1]Metabolism Data'!A270</f>
         <v>269</v>
@@ -25536,7 +25588,7 @@
         <v>7.9445228928333993</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
         <f>'[1]Metabolism Data'!A271</f>
         <v>270</v>
@@ -25570,7 +25622,7 @@
         <v>9.9366689059122546</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
         <f>'[1]Metabolism Data'!A272</f>
         <v>271</v>
@@ -25604,7 +25656,7 @@
         <v>2.2281469431763932</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
         <f>'[1]Metabolism Data'!A273</f>
         <v>272</v>
@@ -25638,7 +25690,7 @@
         <v>4.7689201648657304</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
         <f>'[1]Metabolism Data'!A274</f>
         <v>273</v>
@@ -25672,7 +25724,7 @@
         <v>9.4165039190927207</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
         <f>'[1]Metabolism Data'!A275</f>
         <v>274</v>
@@ -25706,7 +25758,7 @@
         <v>10.210477343849679</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
         <f>'[1]Metabolism Data'!A276</f>
         <v>275</v>
@@ -25755,8 +25807,12 @@
         <f t="shared" si="24"/>
         <v>9.3051631562438235</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199">
+        <f>STDEV(H199:H206,H229:H232)/SQRT(COUNT(H199:H206,H229:H232))</f>
+        <v>1.6507301586864362</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
         <f>'[1]Metabolism Data'!A277</f>
         <v>276</v>
@@ -25790,7 +25846,7 @@
         <v>14.551428293356272</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
         <f>'[1]Metabolism Data'!A278</f>
         <v>277</v>
@@ -25824,7 +25880,7 @@
         <v>18.904518777245613</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
         <f>'[1]Metabolism Data'!A279</f>
         <v>278</v>
@@ -25858,7 +25914,7 @@
         <v>18.562600792012756</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203">
         <f>'[1]Metabolism Data'!A280</f>
         <v>279</v>
@@ -25892,7 +25948,7 @@
         <v>7.673069736954325</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204">
         <f>'[1]Metabolism Data'!A281</f>
         <v>280</v>
@@ -25926,7 +25982,7 @@
         <v>2.1256781479166484</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205">
         <f>'[1]Metabolism Data'!A282</f>
         <v>281</v>
@@ -25960,7 +26016,7 @@
         <v>8.0095823064185616</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206">
         <f>'[1]Metabolism Data'!A283</f>
         <v>282</v>
@@ -25994,7 +26050,7 @@
         <v>11.831593772104654</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
         <f>'[1]Metabolism Data'!A252</f>
         <v>251</v>
@@ -26034,7 +26090,7 @@
         <v>13.768231558097378</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
         <f>'[1]Metabolism Data'!A253</f>
         <v>252</v>
@@ -26066,7 +26122,7 @@
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
         <f>'[1]Metabolism Data'!A254</f>
         <v>253</v>
@@ -26098,7 +26154,7 @@
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
         <f>'[1]Metabolism Data'!A255</f>
         <v>254</v>
@@ -26130,7 +26186,7 @@
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
         <f>'[1]Metabolism Data'!A256</f>
         <v>255</v>
@@ -26158,7 +26214,7 @@
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
         <f>'[1]Metabolism Data'!A257</f>
         <v>256</v>
@@ -26190,7 +26246,7 @@
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
         <f>'[1]Metabolism Data'!A258</f>
         <v>257</v>
@@ -26222,7 +26278,7 @@
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
         <f>'[1]Metabolism Data'!A259</f>
         <v>258</v>
@@ -26254,7 +26310,7 @@
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
         <f>'[1]Metabolism Data'!A260</f>
         <v>259</v>
@@ -26303,8 +26359,12 @@
         <f t="shared" si="25"/>
         <v>6.2492581750684648</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215">
+        <f>STDEV(H215:H222,H240:H245)/SQRT(COUNT(H215:H222,H240:H245))</f>
+        <v>0.69675907952467409</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
         <f>'[1]Metabolism Data'!A261</f>
         <v>260</v>
@@ -26338,7 +26398,7 @@
         <v>3.2828606497863579</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
         <f>'[1]Metabolism Data'!A262</f>
         <v>261</v>
@@ -26372,7 +26432,7 @@
         <v>9.8017865515040512</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
         <f>'[1]Metabolism Data'!A263</f>
         <v>262</v>
@@ -26406,7 +26466,7 @@
         <v>7.8961634604277995</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
         <f>'[1]Metabolism Data'!A264</f>
         <v>263</v>
@@ -26440,7 +26500,7 @@
         <v>4.2624051889930437</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
         <f>'[1]Metabolism Data'!A265</f>
         <v>264</v>
@@ -26474,7 +26534,7 @@
         <v>6.6048096933518865</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
         <f>'[1]Metabolism Data'!A266</f>
         <v>265</v>
@@ -26508,7 +26568,7 @@
         <v>4.4497512514975845</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
         <f>'[1]Metabolism Data'!A267</f>
         <v>266</v>
@@ -26542,7 +26602,7 @@
         <v>5.4139808755065761</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
         <f>'[1]Metabolism Data'!A329</f>
         <v>328</v>
@@ -26580,7 +26640,7 @@
         <v>6.6093647256106864</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
         <f>'[1]Metabolism Data'!A330</f>
         <v>329</v>
@@ -27152,7 +27212,7 @@
         <v>7.5499027351088293</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241">
         <f>'[1]Metabolism Data'!A324</f>
         <v>323</v>
@@ -27186,7 +27246,7 @@
         <v>7.5446794049929835</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242">
         <f>'[1]Metabolism Data'!A325</f>
         <v>324</v>
@@ -27220,7 +27280,7 @@
         <v>6.2702387316835111</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243">
         <f>'[1]Metabolism Data'!A326</f>
         <v>325</v>
@@ -27254,7 +27314,7 @@
         <v>9.0381400484539327</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244">
         <f>'[1]Metabolism Data'!A327</f>
         <v>326</v>
@@ -27288,7 +27348,7 @@
         <v>9.5365448179361483</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245">
         <f>'[1]Metabolism Data'!A328</f>
         <v>327</v>
@@ -27322,7 +27382,7 @@
         <v>7.5872379800382044</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246">
         <f>'[1]Metabolism Data'!A300</f>
         <v>299</v>
@@ -27371,8 +27431,12 @@
         <f>AVERAGE(H246:H253)</f>
         <v>14.370755968040852</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M246">
+        <f>STDEV(H246:H253)/SQRT(COUNT(H246:H253))</f>
+        <v>0.7343541559912975</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247">
         <f>'[1]Metabolism Data'!A301</f>
         <v>300</v>
@@ -27406,7 +27470,7 @@
         <v>16.849088298666015</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248">
         <f>'[1]Metabolism Data'!A302</f>
         <v>301</v>
@@ -27440,7 +27504,7 @@
         <v>12.663842866492248</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249">
         <f>'[1]Metabolism Data'!A303</f>
         <v>302</v>
@@ -27474,7 +27538,7 @@
         <v>14.319047441026525</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250">
         <f>'[1]Metabolism Data'!A304</f>
         <v>303</v>
@@ -27508,7 +27572,7 @@
         <v>12.418228825260194</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251">
         <f>'[1]Metabolism Data'!A305</f>
         <v>304</v>
@@ -27542,7 +27606,7 @@
         <v>17.021401405369005</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252">
         <f>'[1]Metabolism Data'!A306</f>
         <v>305</v>
@@ -27576,7 +27640,7 @@
         <v>11.414749780824765</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253">
         <f>'[1]Metabolism Data'!A307</f>
         <v>306</v>
@@ -27610,7 +27674,7 @@
         <v>14.702895115950827</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254">
         <f>'[1]Metabolism Data'!A308</f>
         <v>307</v>
@@ -27659,8 +27723,12 @@
         <f t="shared" si="30"/>
         <v>17.09942900608209</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M254">
+        <f>STDEV(H254:H261)/SQRT(COUNT(H254:H261))</f>
+        <v>1.5632920726619024</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255">
         <f>'[1]Metabolism Data'!A309</f>
         <v>308</v>
@@ -27694,7 +27762,7 @@
         <v>23.65028533718743</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256">
         <f>'[1]Metabolism Data'!A310</f>
         <v>309</v>
@@ -27728,7 +27796,7 @@
         <v>22.712715582614166</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257">
         <f>'[1]Metabolism Data'!A311</f>
         <v>310</v>
@@ -27762,7 +27830,7 @@
         <v>18.526589110098257</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258">
         <f>'[1]Metabolism Data'!A312</f>
         <v>311</v>
@@ -27796,7 +27864,7 @@
         <v>15.206917011034147</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
         <f>'[1]Metabolism Data'!A313</f>
         <v>312</v>
@@ -27830,7 +27898,7 @@
         <v>15.894127369791711</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
         <f>'[1]Metabolism Data'!A314</f>
         <v>313</v>
@@ -27864,7 +27932,7 @@
         <v>15.292168491300956</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
         <f>'[1]Metabolism Data'!A315</f>
         <v>314</v>
@@ -27898,7 +27966,7 @@
         <v>10.075635851502348</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
         <f>'[1]Metabolism Data'!A284</f>
         <v>283</v>
@@ -27938,7 +28006,7 @@
         <v>28.631792328853244</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
         <f>'[1]Metabolism Data'!A285</f>
         <v>284</v>
@@ -27970,7 +28038,7 @@
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
         <f>'[1]Metabolism Data'!A286</f>
         <v>285</v>
@@ -28002,7 +28070,7 @@
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
         <f>'[1]Metabolism Data'!A287</f>
         <v>286</v>
@@ -28034,7 +28102,7 @@
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
         <f>'[1]Metabolism Data'!A288</f>
         <v>287</v>
@@ -28066,7 +28134,7 @@
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
         <f>'[1]Metabolism Data'!A289</f>
         <v>288</v>
@@ -28098,7 +28166,7 @@
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
         <f>'[1]Metabolism Data'!A290</f>
         <v>289</v>
@@ -28130,7 +28198,7 @@
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
         <f>'[1]Metabolism Data'!A291</f>
         <v>290</v>
@@ -28158,7 +28226,7 @@
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
         <f>'[1]Metabolism Data'!A292</f>
         <v>291</v>
@@ -28207,8 +28275,12 @@
         <f t="shared" si="32"/>
         <v>16.058042168342769</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M270">
+        <f>STDEV(H270:H277)/SQRT(COUNT(H270:H277))</f>
+        <v>0.79777185306576737</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
         <f>'[1]Metabolism Data'!A293</f>
         <v>292</v>
@@ -28242,7 +28314,7 @@
         <v>18.845623460557185</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
         <f>'[1]Metabolism Data'!A294</f>
         <v>293</v>
@@ -28276,7 +28348,7 @@
         <v>15.56959397388181</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
         <f>'[1]Metabolism Data'!A295</f>
         <v>294</v>
@@ -28310,7 +28382,7 @@
         <v>17.501978253092709</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274">
         <f>'[1]Metabolism Data'!A296</f>
         <v>295</v>
@@ -28344,7 +28416,7 @@
         <v>13.341822044084923</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
         <f>'[1]Metabolism Data'!A297</f>
         <v>296</v>
@@ -28378,7 +28450,7 @@
         <v>16.750071516490202</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276">
         <f>'[1]Metabolism Data'!A298</f>
         <v>297</v>
@@ -28412,7 +28484,7 @@
         <v>12.933565856119957</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277">
         <f>'[1]Metabolism Data'!A299</f>
         <v>298</v>
@@ -28446,7 +28518,7 @@
         <v>14.898110304144485</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278">
         <f>'[1]Metabolism Data'!A678</f>
         <v>677</v>
@@ -28495,8 +28567,12 @@
         <f t="shared" si="33"/>
         <v>1.6074963179216282</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M278">
+        <f>STDEV(H278:H284,H306:H312)/SQRT(COUNT(H278:H284,H306:H312))</f>
+        <v>0.24186167197445479</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279">
         <f>'[1]Metabolism Data'!A679</f>
         <v>678</v>
@@ -28530,7 +28606,7 @@
         <v>0.58456461919994829</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280">
         <f>'[1]Metabolism Data'!A680</f>
         <v>679</v>
@@ -28564,7 +28640,7 @@
         <v>1.8988947576604105</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281">
         <f>'[1]Metabolism Data'!A681</f>
         <v>680</v>
@@ -28598,7 +28674,7 @@
         <v>1.5188219066354955</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282">
         <f>'[1]Metabolism Data'!A682</f>
         <v>681</v>
@@ -28632,7 +28708,7 @@
         <v>2.1202558686968986</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283">
         <f>'[1]Metabolism Data'!A683</f>
         <v>682</v>
@@ -28666,7 +28742,7 @@
         <v>1.6018979396464037</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
         <f>'[1]Metabolism Data'!A684</f>
         <v>683</v>
@@ -28700,7 +28776,7 @@
         <v>2.9911041085004273</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
         <f>'[1]Metabolism Data'!A685</f>
         <v>684</v>
@@ -28749,8 +28825,12 @@
         <f t="shared" si="35"/>
         <v>1.8544007139488168</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M285">
+        <f>STDEV(H285:H291,H313:H319)/SQRT(COUNT(H285:H291,H313:H319))</f>
+        <v>0.19352984800371645</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
         <f>'[1]Metabolism Data'!A686</f>
         <v>685</v>
@@ -28784,7 +28864,7 @@
         <v>1.6286207302649145</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
         <f>'[1]Metabolism Data'!A687</f>
         <v>686</v>
@@ -28818,7 +28898,7 @@
         <v>1.8967949076547459</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
         <f>'[1]Metabolism Data'!A688</f>
         <v>687</v>
@@ -28852,7 +28932,7 @@
         <v>2.0731823081304008</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289">
         <f>'[1]Metabolism Data'!A689</f>
         <v>688</v>
@@ -28886,7 +28966,7 @@
         <v>1.1072513055256412</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290">
         <f>'[1]Metabolism Data'!A690</f>
         <v>689</v>
@@ -28920,7 +29000,7 @@
         <v>2.5462715918237273</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291">
         <f>'[1]Metabolism Data'!A691</f>
         <v>690</v>
@@ -28954,7 +29034,7 @@
         <v>2.3412746334435108</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292">
         <f>'[1]Metabolism Data'!A664</f>
         <v>663</v>
@@ -28994,7 +29074,7 @@
         <v>7.9375041128170096</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293">
         <f>'[1]Metabolism Data'!A665</f>
         <v>664</v>
@@ -29026,7 +29106,7 @@
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294">
         <f>'[1]Metabolism Data'!A666</f>
         <v>665</v>
@@ -29058,7 +29138,7 @@
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295">
         <f>'[1]Metabolism Data'!A667</f>
         <v>666</v>
@@ -29090,7 +29170,7 @@
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296">
         <f>'[1]Metabolism Data'!A668</f>
         <v>667</v>
@@ -29122,7 +29202,7 @@
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297">
         <f>'[1]Metabolism Data'!A669</f>
         <v>668</v>
@@ -29154,7 +29234,7 @@
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298">
         <f>'[1]Metabolism Data'!A670</f>
         <v>669</v>
@@ -29186,7 +29266,7 @@
       <c r="H298" s="2"/>
       <c r="I298" s="2"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299">
         <f>'[1]Metabolism Data'!A671</f>
         <v>670</v>
@@ -29235,8 +29315,12 @@
         <f t="shared" si="36"/>
         <v>1.6231043708296498</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M299">
+        <f>STDEV(H299:H305,H327:H332)/SQRT(COUNT(H299:H305,H327:H332))</f>
+        <v>0.15491327272997729</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300">
         <f>'[1]Metabolism Data'!A672</f>
         <v>671</v>
@@ -29270,7 +29354,7 @@
         <v>1.3700977475387892</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301">
         <f>'[1]Metabolism Data'!A673</f>
         <v>672</v>
@@ -29304,7 +29388,7 @@
         <v>1.9872360149256587</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302">
         <f>'[1]Metabolism Data'!A674</f>
         <v>673</v>
@@ -29338,7 +29422,7 @@
         <v>1.502474687236574</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303">
         <f>'[1]Metabolism Data'!A675</f>
         <v>674</v>
@@ -29372,7 +29456,7 @@
         <v>2.7952162940346765</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304">
         <f>'[1]Metabolism Data'!A676</f>
         <v>675</v>
@@ -29948,7 +30032,7 @@
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321">
         <f>'[1]Metabolism Data'!A634</f>
         <v>633</v>
@@ -29980,7 +30064,7 @@
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322">
         <f>'[1]Metabolism Data'!A635</f>
         <v>634</v>
@@ -30012,7 +30096,7 @@
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323">
         <f>'[1]Metabolism Data'!A636</f>
         <v>635</v>
@@ -30044,7 +30128,7 @@
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324">
         <f>'[1]Metabolism Data'!A637</f>
         <v>636</v>
@@ -30076,7 +30160,7 @@
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325">
         <f>'[1]Metabolism Data'!A638</f>
         <v>637</v>
@@ -30108,7 +30192,7 @@
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326">
         <f>'[1]Metabolism Data'!A639</f>
         <v>638</v>
@@ -30140,7 +30224,7 @@
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327">
         <f>'[1]Metabolism Data'!A640</f>
         <v>639</v>
@@ -30178,7 +30262,7 @@
         <v>1.7658716495723152</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328">
         <f>'[1]Metabolism Data'!A641</f>
         <v>640</v>
@@ -30212,7 +30296,7 @@
         <v>1.95904708036361</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329">
         <f>'[1]Metabolism Data'!A642</f>
         <v>641</v>
@@ -30246,7 +30330,7 @@
         <v>2.4183989765366287</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330">
         <f>'[1]Metabolism Data'!A643</f>
         <v>642</v>
@@ -30280,7 +30364,7 @@
         <v>1.8751090336287644</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331">
         <f>'[1]Metabolism Data'!A644</f>
         <v>643</v>
@@ -30314,7 +30398,7 @@
         <v>2.5045845174797403</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332">
         <f>'[1]Metabolism Data'!A645</f>
         <v>644</v>
@@ -30348,7 +30432,7 @@
         <v>1.1121982471332943</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333">
         <f>'[1]Metabolism Data'!A646</f>
         <v>645</v>
@@ -30382,7 +30466,7 @@
         <v>0.79716631439307328</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334">
         <f>'[1]Metabolism Data'!A707</f>
         <v>706</v>
@@ -30427,8 +30511,12 @@
         <f t="shared" si="40"/>
         <v>1.4805125689470415</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M334">
+        <f>STDEV(H334:H339)/SQRT(COUNT(H334:H339))</f>
+        <v>0.23028612673254104</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335">
         <f>'[1]Metabolism Data'!A708</f>
         <v>707</v>
@@ -30462,7 +30550,7 @@
         <v>1.006723363173101</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336">
         <f>'[1]Metabolism Data'!A709</f>
         <v>708</v>
@@ -30496,7 +30584,7 @@
         <v>1.8085700441981254</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337">
         <f>'[1]Metabolism Data'!A710</f>
         <v>709</v>
@@ -30530,7 +30618,7 @@
         <v>1.4736837698225131</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338">
         <f>'[1]Metabolism Data'!A711</f>
         <v>710</v>
@@ -30564,7 +30652,7 @@
         <v>1.9760131813859243</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339">
         <f>'[1]Metabolism Data'!A712</f>
         <v>711</v>
@@ -30598,7 +30686,7 @@
         <v>0.61821633856778502</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340">
         <f>'[1]Metabolism Data'!A713</f>
         <v>712</v>
@@ -30647,8 +30735,12 @@
         <f t="shared" ref="L340" si="43">AVERAGE(H340:H345)</f>
         <v>1.2782161290519631</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M340">
+        <f>STDEV(H340:H345)/SQRT(COUNT(H340:H345))</f>
+        <v>0.10627805220871836</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341">
         <f>'[1]Metabolism Data'!A714</f>
         <v>713</v>
@@ -30682,7 +30774,7 @@
         <v>1.0476155890575047</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342">
         <f>'[1]Metabolism Data'!A715</f>
         <v>714</v>
@@ -30716,7 +30808,7 @@
         <v>1.5496428230108301</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343">
         <f>'[1]Metabolism Data'!A716</f>
         <v>715</v>
@@ -30750,7 +30842,7 @@
         <v>1.6500943837543984</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344">
         <f>'[1]Metabolism Data'!A717</f>
         <v>716</v>
@@ -30784,7 +30876,7 @@
         <v>1.1039291305600574</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345">
         <f>'[1]Metabolism Data'!A718</f>
         <v>717</v>
@@ -30818,7 +30910,7 @@
         <v>1.0726626288171202</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346">
         <f>'[1]Metabolism Data'!A695</f>
         <v>694</v>
@@ -30858,7 +30950,7 @@
         <v>5.2171636166367703</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347">
         <f>'[1]Metabolism Data'!A696</f>
         <v>695</v>
@@ -30890,7 +30982,7 @@
       <c r="H347" s="2"/>
       <c r="I347" s="2"/>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348">
         <f>'[1]Metabolism Data'!A697</f>
         <v>696</v>
@@ -30922,7 +31014,7 @@
       <c r="H348" s="2"/>
       <c r="I348" s="2"/>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349">
         <f>'[1]Metabolism Data'!A698</f>
         <v>697</v>
@@ -30954,7 +31046,7 @@
       <c r="H349" s="2"/>
       <c r="I349" s="2"/>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350">
         <f>'[1]Metabolism Data'!A699</f>
         <v>698</v>
@@ -30986,7 +31078,7 @@
       <c r="H350" s="2"/>
       <c r="I350" s="2"/>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351">
         <f>'[1]Metabolism Data'!A700</f>
         <v>699</v>
@@ -31018,7 +31110,7 @@
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352">
         <f>'[1]Metabolism Data'!A701</f>
         <v>700</v>
@@ -31067,8 +31159,12 @@
         <f t="shared" ref="L352" si="47">AVERAGE(H352:H357)</f>
         <v>1.4689105637556128</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M352">
+        <f>STDEV(H352:H357)/SQRT(COUNT(H352:H357))</f>
+        <v>0.30315755288359025</v>
+      </c>
+    </row>
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353">
         <f>'[1]Metabolism Data'!A702</f>
         <v>701</v>
@@ -31102,7 +31198,7 @@
         <v>1.1073287240348599</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354">
         <f>'[1]Metabolism Data'!A703</f>
         <v>702</v>
@@ -31136,7 +31232,7 @@
         <v>1.1413345126770209</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355">
         <f>'[1]Metabolism Data'!A704</f>
         <v>703</v>
@@ -31170,7 +31266,7 @@
         <v>1.0767547992032513</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356">
         <f>'[1]Metabolism Data'!A705</f>
         <v>704</v>
@@ -31204,7 +31300,7 @@
         <v>1.7340391795321946</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357">
         <f>'[1]Metabolism Data'!A706</f>
         <v>705</v>
@@ -31238,7 +31334,7 @@
         <v>2.8674396600251164</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358">
         <f>'[1]Metabolism Data'!A618</f>
         <v>617</v>
@@ -31287,8 +31383,12 @@
         <f t="shared" si="48"/>
         <v>2.5608470614920273</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M358">
+        <f>STDEV(H358:H363,H386:H392)/SQRT(COUNT(H358:H363,H386:H392))</f>
+        <v>0.24272177243499984</v>
+      </c>
+    </row>
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359">
         <f>'[1]Metabolism Data'!A619</f>
         <v>618</v>
@@ -31322,7 +31422,7 @@
         <v>2.0183926361579165</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360">
         <f>'[1]Metabolism Data'!A620</f>
         <v>619</v>
@@ -31356,7 +31456,7 @@
         <v>1.8521985382954089</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361">
         <f>'[1]Metabolism Data'!A621</f>
         <v>620</v>
@@ -31386,7 +31486,7 @@
         <v>1.501568842935004</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362">
         <f>'[1]Metabolism Data'!A622</f>
         <v>621</v>
@@ -31420,7 +31520,7 @@
         <v>2.0324794415382632</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363">
         <f>'[1]Metabolism Data'!A623</f>
         <v>622</v>
@@ -31454,7 +31554,7 @@
         <v>2.9831249583747756</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364">
         <f>'[1]Metabolism Data'!A624</f>
         <v>623</v>
@@ -31503,8 +31603,12 @@
         <f t="shared" si="50"/>
         <v>2.8534011236782129</v>
       </c>
-    </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M364">
+        <f>STDEV(H364:H369,H393:H399)/SQRT(COUNT(H364:H369,H393:H399))</f>
+        <v>0.32083850503257533</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365">
         <f>'[1]Metabolism Data'!A625</f>
         <v>624</v>
@@ -31538,7 +31642,7 @@
         <v>1.6607298069587901</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366">
         <f>'[1]Metabolism Data'!A626</f>
         <v>625</v>
@@ -31568,7 +31672,7 @@
         <v>1.9155547074680068</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367">
         <f>'[1]Metabolism Data'!A627</f>
         <v>626</v>
@@ -31602,7 +31706,7 @@
         <v>3.2924190328045788</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368">
         <f>'[1]Metabolism Data'!A628</f>
         <v>627</v>
@@ -31636,7 +31740,7 @@
         <v>2.3162817449134234</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369">
         <f>'[1]Metabolism Data'!A629</f>
         <v>628</v>
@@ -31670,7 +31774,7 @@
         <v>2.2595197739688366</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370">
         <f>'[1]Metabolism Data'!A606</f>
         <v>605</v>
@@ -31710,7 +31814,7 @@
         <v>15.52664457438768</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371">
         <f>'[1]Metabolism Data'!A607</f>
         <v>606</v>
@@ -31742,7 +31846,7 @@
       <c r="H371" s="2"/>
       <c r="I371" s="2"/>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372">
         <f>'[1]Metabolism Data'!A608</f>
         <v>607</v>
@@ -31774,7 +31878,7 @@
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373">
         <f>'[1]Metabolism Data'!A609</f>
         <v>608</v>
@@ -31806,7 +31910,7 @@
       <c r="H373" s="2"/>
       <c r="I373" s="2"/>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374">
         <f>'[1]Metabolism Data'!A610</f>
         <v>609</v>
@@ -31838,7 +31942,7 @@
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375">
         <f>'[1]Metabolism Data'!A611</f>
         <v>610</v>
@@ -31870,7 +31974,7 @@
       <c r="H375" s="2"/>
       <c r="I375" s="2"/>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376">
         <f>'[1]Metabolism Data'!A612</f>
         <v>611</v>
@@ -31919,8 +32023,12 @@
         <f t="shared" si="52"/>
         <v>2.7954064849009623</v>
       </c>
-    </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M376">
+        <f>STDEV(H376:H381,H407:H412)/SQRT(COUNT(H376:H381,H407:H412))</f>
+        <v>9.5639585205090152E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377">
         <f>'[1]Metabolism Data'!A613</f>
         <v>612</v>
@@ -31954,7 +32062,7 @@
         <v>2.2904512917803155</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378">
         <f>'[1]Metabolism Data'!A614</f>
         <v>613</v>
@@ -31988,7 +32096,7 @@
         <v>2.4549790222808863</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379">
         <f>'[1]Metabolism Data'!A615</f>
         <v>614</v>
@@ -32022,7 +32130,7 @@
         <v>1.8829600344745405</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380">
         <f>'[1]Metabolism Data'!A616</f>
         <v>615</v>
@@ -32056,7 +32164,7 @@
         <v>2.174509538209795</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381">
         <f>'[1]Metabolism Data'!A617</f>
         <v>616</v>
@@ -32090,7 +32198,7 @@
         <v>2.3789586672066401</v>
       </c>
     </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382">
         <f>'[1]Metabolism Data'!A591</f>
         <v>590</v>
@@ -32128,7 +32236,7 @@
         <v>3.0941936696088308</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383">
         <f>'[1]Metabolism Data'!A592</f>
         <v>591</v>
@@ -32162,7 +32270,7 @@
         <v>2.7954517420483471</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384">
         <f>'[1]Metabolism Data'!A593</f>
         <v>592</v>
@@ -32736,7 +32844,7 @@
         <v>3.4532340290709116</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401">
         <f>'[1]Metabolism Data'!A586</f>
         <v>585</v>
@@ -32770,7 +32878,7 @@
         <v>3.5881690909909842</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402">
         <f>'[1]Metabolism Data'!A587</f>
         <v>586</v>
@@ -32804,7 +32912,7 @@
         <v>3.2458670477562115</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403">
         <f>'[1]Metabolism Data'!A588</f>
         <v>587</v>
@@ -32838,7 +32946,7 @@
         <v>3.490172365150507</v>
       </c>
     </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404">
         <f>'[1]Metabolism Data'!A589</f>
         <v>588</v>
@@ -32872,7 +32980,7 @@
         <v>2.9453744480509441</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405">
         <f>'[1]Metabolism Data'!A590</f>
         <v>589</v>
@@ -32906,7 +33014,7 @@
         <v>3.0260335598130745</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406">
         <f>'[1]Metabolism Data'!A564</f>
         <v>563</v>
@@ -32955,8 +33063,12 @@
         <f t="shared" si="55"/>
         <v>1.6680794759838573</v>
       </c>
-    </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M406">
+        <f>STDEV(H406:H411)/SQRT(COUNT(H406:H411))</f>
+        <v>5.3456450981823757E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407">
         <f>'[1]Metabolism Data'!A565</f>
         <v>564</v>
@@ -32990,7 +33102,7 @@
         <v>1.6123597225059421</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408">
         <f>'[1]Metabolism Data'!A566</f>
         <v>565</v>
@@ -33024,7 +33136,7 @@
         <v>1.620335836761424</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409">
         <f>'[1]Metabolism Data'!A567</f>
         <v>566</v>
@@ -33058,7 +33170,7 @@
         <v>1.532418838597861</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410">
         <f>'[1]Metabolism Data'!A568</f>
         <v>567</v>
@@ -33092,7 +33204,7 @@
         <v>1.7532758272628342</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411">
         <f>'[1]Metabolism Data'!A569</f>
         <v>568</v>
@@ -33126,7 +33238,7 @@
         <v>1.8913896965771431</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412">
         <f>'[1]Metabolism Data'!A570</f>
         <v>569</v>
@@ -33175,8 +33287,12 @@
         <f>AVERAGE(H412:H417)</f>
         <v>1.6472063251234956</v>
       </c>
-    </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M412">
+        <f>STDEV(H412:H417)/SQRT(COUNT(H412:H417))</f>
+        <v>6.9094043033367789E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413">
         <f>'[1]Metabolism Data'!A571</f>
         <v>570</v>
@@ -33210,7 +33326,7 @@
         <v>1.3747418587157165</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414">
         <f>'[1]Metabolism Data'!A572</f>
         <v>571</v>
@@ -33244,7 +33360,7 @@
         <v>1.859112515913512</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415">
         <f>'[1]Metabolism Data'!A573</f>
         <v>572</v>
@@ -33278,7 +33394,7 @@
         <v>1.6738422698919522</v>
       </c>
     </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416">
         <f>'[1]Metabolism Data'!A574</f>
         <v>573</v>
@@ -33312,7 +33428,7 @@
         <v>1.7666162703659225</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417">
         <f>'[1]Metabolism Data'!A575</f>
         <v>574</v>
@@ -33346,7 +33462,7 @@
         <v>1.5522312550325985</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418">
         <f>'[1]Metabolism Data'!A552</f>
         <v>551</v>
@@ -33386,7 +33502,7 @@
         <v>14.484419691484716</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419">
         <f>'[1]Metabolism Data'!A553</f>
         <v>552</v>
@@ -33418,7 +33534,7 @@
       <c r="H419" s="2"/>
       <c r="I419" s="2"/>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420">
         <f>'[1]Metabolism Data'!A554</f>
         <v>553</v>
@@ -33450,7 +33566,7 @@
       <c r="H420" s="2"/>
       <c r="I420" s="2"/>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421">
         <f>'[1]Metabolism Data'!A555</f>
         <v>554</v>
@@ -33482,7 +33598,7 @@
       <c r="H421" s="2"/>
       <c r="I421" s="2"/>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422">
         <f>'[1]Metabolism Data'!A556</f>
         <v>555</v>
@@ -33514,7 +33630,7 @@
       <c r="H422" s="2"/>
       <c r="I422" s="2"/>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423">
         <f>'[1]Metabolism Data'!A557</f>
         <v>556</v>
@@ -33546,7 +33662,7 @@
       <c r="H423" s="2"/>
       <c r="I423" s="2"/>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424">
         <f>'[1]Metabolism Data'!A558</f>
         <v>557</v>
@@ -33595,8 +33711,12 @@
         <f t="shared" si="58"/>
         <v>1.9382464430511461</v>
       </c>
-    </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M424">
+        <f>STDEV(H424:H429)/SQRT(COUNT(H424:H429))</f>
+        <v>0.17243413203440158</v>
+      </c>
+    </row>
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425">
         <f>'[1]Metabolism Data'!A559</f>
         <v>558</v>
@@ -33630,7 +33750,7 @@
         <v>1.0951100536798934</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426">
         <f>'[1]Metabolism Data'!A560</f>
         <v>559</v>
@@ -33664,7 +33784,7 @@
         <v>2.1286439622170015</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427">
         <f>'[1]Metabolism Data'!A561</f>
         <v>560</v>
@@ -33698,7 +33818,7 @@
         <v>1.9812809488251235</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428">
         <f>'[1]Metabolism Data'!A562</f>
         <v>561</v>
@@ -33732,7 +33852,7 @@
         <v>2.2520488932020291</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429">
         <f>'[1]Metabolism Data'!A563</f>
         <v>562</v>
@@ -33766,7 +33886,7 @@
         <v>2.0665404360072612</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430">
         <f>'[1]Metabolism Data'!A767</f>
         <v>766</v>
@@ -33815,8 +33935,12 @@
         <f>AVERAGE(H430:H436,H458:H464)</f>
         <v>3.0171016473071575</v>
       </c>
-    </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M430">
+        <f>STDEV(H430:H436,H458:H464)/SQRT(COUNT(H430:H436,H458:H464))</f>
+        <v>0.16165259829238515</v>
+      </c>
+    </row>
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431">
         <f>'[1]Metabolism Data'!A768</f>
         <v>767</v>
@@ -33850,7 +33974,7 @@
         <v>2.3823630708408743</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432">
         <f>'[1]Metabolism Data'!A769</f>
         <v>768</v>
@@ -33884,7 +34008,7 @@
         <v>2.6840879075341015</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433">
         <f>'[1]Metabolism Data'!A770</f>
         <v>769</v>
@@ -33918,7 +34042,7 @@
         <v>2.390331657359841</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434">
         <f>'[1]Metabolism Data'!A771</f>
         <v>770</v>
@@ -33952,7 +34076,7 @@
         <v>2.1579091297494406</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435">
         <f>'[1]Metabolism Data'!A772</f>
         <v>771</v>
@@ -33986,7 +34110,7 @@
         <v>3.7836816303157068</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436">
         <f>'[1]Metabolism Data'!A773</f>
         <v>772</v>
@@ -34020,7 +34144,7 @@
         <v>3.692680003176783</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437">
         <f>'[1]Metabolism Data'!A774</f>
         <v>773</v>
@@ -34069,8 +34193,12 @@
         <f>AVERAGE(H437:H443,H465:H471)</f>
         <v>3.1606609633408267</v>
       </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M437">
+        <f>STDEV(H437:H443,H465:H471)/SQRT(COUNT(H437:H443,H465:H471))</f>
+        <v>0.12530825214268584</v>
+      </c>
+    </row>
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438">
         <f>'[1]Metabolism Data'!A775</f>
         <v>774</v>
@@ -34104,7 +34232,7 @@
         <v>2.8946705100472796</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439">
         <f>'[1]Metabolism Data'!A776</f>
         <v>775</v>
@@ -34138,7 +34266,7 @@
         <v>3.0604195138826977</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440">
         <f>'[1]Metabolism Data'!A777</f>
         <v>776</v>
@@ -34172,7 +34300,7 @@
         <v>2.8965628970288826</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441">
         <f>'[1]Metabolism Data'!A778</f>
         <v>777</v>
@@ -34206,7 +34334,7 @@
         <v>3.3766665119595416</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442">
         <f>'[1]Metabolism Data'!A779</f>
         <v>778</v>
@@ -34240,7 +34368,7 @@
         <v>3.8976149410209628</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443">
         <f>'[1]Metabolism Data'!A780</f>
         <v>779</v>
@@ -34274,7 +34402,7 @@
         <v>2.9062972230041955</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444">
         <f>'[1]Metabolism Data'!A753</f>
         <v>752</v>
@@ -34314,7 +34442,7 @@
         <v>16.012116752366218</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445">
         <f>'[1]Metabolism Data'!A754</f>
         <v>753</v>
@@ -34346,7 +34474,7 @@
       <c r="H445" s="2"/>
       <c r="I445" s="2"/>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446">
         <f>'[1]Metabolism Data'!A755</f>
         <v>754</v>
@@ -34378,7 +34506,7 @@
       <c r="H446" s="2"/>
       <c r="I446" s="2"/>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447">
         <f>'[1]Metabolism Data'!A756</f>
         <v>755</v>
@@ -34410,7 +34538,7 @@
       <c r="H447" s="2"/>
       <c r="I447" s="2"/>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448">
         <f>'[1]Metabolism Data'!A757</f>
         <v>756</v>
@@ -34442,7 +34570,7 @@
       <c r="H448" s="2"/>
       <c r="I448" s="2"/>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449">
         <f>'[1]Metabolism Data'!A758</f>
         <v>757</v>
@@ -34474,7 +34602,7 @@
       <c r="H449" s="2"/>
       <c r="I449" s="2"/>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450">
         <f>'[1]Metabolism Data'!A759</f>
         <v>758</v>
@@ -34506,7 +34634,7 @@
       <c r="H450" s="2"/>
       <c r="I450" s="2"/>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451">
         <f>'[1]Metabolism Data'!A760</f>
         <v>759</v>
@@ -34555,8 +34683,12 @@
         <f>AVERAGE(H451:H457,H479:H485)</f>
         <v>3.012344841243181</v>
       </c>
-    </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M451">
+        <f>STDEV(H451:H456,H479:H485)/SQRT(COUNT(H451:H456,H479:H485))</f>
+        <v>7.9905394675668553E-2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452">
         <f>'[1]Metabolism Data'!A761</f>
         <v>760</v>
@@ -34590,7 +34722,7 @@
         <v>2.714849229484233</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453">
         <f>'[1]Metabolism Data'!A762</f>
         <v>761</v>
@@ -34624,7 +34756,7 @@
         <v>2.8795685198215559</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454">
         <f>'[1]Metabolism Data'!A763</f>
         <v>762</v>
@@ -34658,7 +34790,7 @@
         <v>3.0530915117327648</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455">
         <f>'[1]Metabolism Data'!A764</f>
         <v>763</v>
@@ -34692,7 +34824,7 @@
         <v>3.1432537660332405</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456">
         <f>'[1]Metabolism Data'!A765</f>
         <v>764</v>
@@ -34726,7 +34858,7 @@
         <v>3.2090293827557232</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457">
         <f>'[1]Metabolism Data'!A766</f>
         <v>765</v>
@@ -34760,7 +34892,7 @@
         <v>2.6094638995161006</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458">
         <f>'[1]Metabolism Data'!A736</f>
         <v>735</v>
@@ -34798,7 +34930,7 @@
         <v>3.241594442487969</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459">
         <f>'[1]Metabolism Data'!A737</f>
         <v>736</v>
@@ -34832,7 +34964,7 @@
         <v>3.3945553198680081</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460">
         <f>'[1]Metabolism Data'!A738</f>
         <v>737</v>
@@ -34866,7 +34998,7 @@
         <v>2.9383043209944941</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461">
         <f>'[1]Metabolism Data'!A739</f>
         <v>738</v>
@@ -34900,7 +35032,7 @@
         <v>3.3261349688503317</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462">
         <f>'[1]Metabolism Data'!A740</f>
         <v>739</v>
@@ -34934,7 +35066,7 @@
         <v>3.6427909950455648</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463">
         <f>'[1]Metabolism Data'!A741</f>
         <v>740</v>
@@ -34968,7 +35100,7 @@
         <v>3.5240798454815616</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464">
         <f>'[1]Metabolism Data'!A742</f>
         <v>741</v>
@@ -35532,7 +35664,7 @@
         <v>3.0559281067864541</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481">
         <f>'[1]Metabolism Data'!A731</f>
         <v>730</v>
@@ -35566,7 +35698,7 @@
         <v>3.0544430727149261</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482">
         <f>'[1]Metabolism Data'!A732</f>
         <v>731</v>
@@ -35600,7 +35732,7 @@
         <v>3.0934558755717276</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483">
         <f>'[1]Metabolism Data'!A733</f>
         <v>732</v>
@@ -35634,7 +35766,7 @@
         <v>3.3961655982976517</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484">
         <f>'[1]Metabolism Data'!A734</f>
         <v>733</v>
@@ -35668,7 +35800,7 @@
         <v>3.6401263398014962</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485">
         <f>'[1]Metabolism Data'!A735</f>
         <v>734</v>
@@ -35702,7 +35834,7 @@
         <v>3.057157325962887</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486">
         <f>'[1]Metabolism Data'!A798</f>
         <v>797</v>
@@ -35751,8 +35883,12 @@
         <f t="shared" si="63"/>
         <v>2.3267539409601432</v>
       </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M486">
+        <f>STDEV(H486:H492)/SQRT(COUNT(H486:H492))</f>
+        <v>0.22425693561749555</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487">
         <f>'[1]Metabolism Data'!A799</f>
         <v>798</v>
@@ -35786,7 +35922,7 @@
         <v>1.034913678836654</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488">
         <f>'[1]Metabolism Data'!A800</f>
         <v>799</v>
@@ -35820,7 +35956,7 @@
         <v>2.4082783455242849</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489">
         <f>'[1]Metabolism Data'!A801</f>
         <v>800</v>
@@ -35854,7 +35990,7 @@
         <v>2.4969750491232361</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490">
         <f>'[1]Metabolism Data'!A802</f>
         <v>801</v>
@@ -35888,7 +36024,7 @@
         <v>2.6202077176588054</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491">
         <f>'[1]Metabolism Data'!A803</f>
         <v>802</v>
@@ -35922,7 +36058,7 @@
         <v>2.7641864258148372</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492">
         <f>'[1]Metabolism Data'!A804</f>
         <v>803</v>
@@ -35956,7 +36092,7 @@
         <v>2.6844459908401128</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493">
         <f>'[1]Metabolism Data'!A805</f>
         <v>804</v>
@@ -36005,8 +36141,12 @@
         <f>AVERAGE(H493:H499)</f>
         <v>2.7880223560912603</v>
       </c>
-    </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M493">
+        <f>STDEV(H493:H499)/SQRT(COUNT(H493:H499))</f>
+        <v>0.16515989670632167</v>
+      </c>
+    </row>
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494">
         <f>'[1]Metabolism Data'!A806</f>
         <v>805</v>
@@ -36040,7 +36180,7 @@
         <v>2.280032374398882</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495">
         <f>'[1]Metabolism Data'!A807</f>
         <v>806</v>
@@ -36074,7 +36214,7 @@
         <v>2.5771466397718141</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496">
         <f>'[1]Metabolism Data'!A808</f>
         <v>807</v>
@@ -36108,7 +36248,7 @@
         <v>2.7436206658606537</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497">
         <f>'[1]Metabolism Data'!A809</f>
         <v>808</v>
@@ -36142,7 +36282,7 @@
         <v>3.3989984127210193</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498">
         <f>'[1]Metabolism Data'!A810</f>
         <v>809</v>
@@ -36176,7 +36316,7 @@
         <v>3.0823308696347964</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499">
         <f>'[1]Metabolism Data'!A811</f>
         <v>810</v>
@@ -36210,7 +36350,7 @@
         <v>2.286212384015835</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500">
         <f>'[1]Metabolism Data'!A784</f>
         <v>783</v>
@@ -36250,7 +36390,7 @@
         <v>9.1553551544982898</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501">
         <f>'[1]Metabolism Data'!A785</f>
         <v>784</v>
@@ -36282,7 +36422,7 @@
       <c r="H501" s="2"/>
       <c r="I501" s="2"/>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502">
         <f>'[1]Metabolism Data'!A786</f>
         <v>785</v>
@@ -36314,7 +36454,7 @@
       <c r="H502" s="2"/>
       <c r="I502" s="2"/>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503">
         <f>'[1]Metabolism Data'!A787</f>
         <v>786</v>
@@ -36346,7 +36486,7 @@
       <c r="H503" s="2"/>
       <c r="I503" s="2"/>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504">
         <f>'[1]Metabolism Data'!A788</f>
         <v>787</v>
@@ -36378,7 +36518,7 @@
       <c r="H504" s="2"/>
       <c r="I504" s="2"/>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505">
         <f>'[1]Metabolism Data'!A789</f>
         <v>788</v>
@@ -36410,7 +36550,7 @@
       <c r="H505" s="2"/>
       <c r="I505" s="2"/>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506">
         <f>'[1]Metabolism Data'!A790</f>
         <v>789</v>
@@ -36442,7 +36582,7 @@
       <c r="H506" s="2"/>
       <c r="I506" s="2"/>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507">
         <f>'[1]Metabolism Data'!A791</f>
         <v>790</v>
@@ -36491,8 +36631,12 @@
         <f t="shared" si="66"/>
         <v>2.5917331406943567</v>
       </c>
-    </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M507">
+        <f>STDEV(H507:H513)/SQRT(COUNT(H507:H513))</f>
+        <v>0.29949113864301252</v>
+      </c>
+    </row>
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508">
         <f>'[1]Metabolism Data'!A792</f>
         <v>791</v>
@@ -36526,7 +36670,7 @@
         <v>2.7369724891259355</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509">
         <f>'[1]Metabolism Data'!A793</f>
         <v>792</v>
@@ -36560,7 +36704,7 @@
         <v>2.1049068628030336</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510">
         <f>'[1]Metabolism Data'!A794</f>
         <v>793</v>
@@ -36594,7 +36738,7 @@
         <v>2.3838423632871568</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511">
         <f>'[1]Metabolism Data'!A795</f>
         <v>794</v>
@@ -36628,7 +36772,7 @@
         <v>3.0797054631535583</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512">
         <f>'[1]Metabolism Data'!A796</f>
         <v>795</v>
@@ -36662,7 +36806,7 @@
         <v>3.4870236990291086</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513">
         <f>'[1]Metabolism Data'!A797</f>
         <v>796</v>
@@ -36696,7 +36840,7 @@
         <v>3.1943045480214209</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514">
         <f>'[1]Metabolism Data'!A196</f>
         <v>195</v>
@@ -36733,8 +36877,16 @@
         <f>AVERAGE(H514:H521)</f>
         <v>2.4567694115314258</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L514">
+        <f>AVERAGE(H514:H521,H546:H553)</f>
+        <v>2.5541612542362193</v>
+      </c>
+      <c r="M514">
+        <f>STDEV(H515:H521,H546:H553)/SQRT(COUNT(H515:H521,H546:H553))</f>
+        <v>0.23005379170926141</v>
+      </c>
+    </row>
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515">
         <f>'[1]Metabolism Data'!A197</f>
         <v>196</v>
@@ -36768,7 +36920,7 @@
         <v>2.3188788430239806</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516">
         <f>'[1]Metabolism Data'!A198</f>
         <v>197</v>
@@ -36802,7 +36954,7 @@
         <v>0.73316492317585358</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517">
         <f>'[1]Metabolism Data'!A199</f>
         <v>198</v>
@@ -36836,7 +36988,7 @@
         <v>2.4085662385471789</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518">
         <f>'[1]Metabolism Data'!A200</f>
         <v>199</v>
@@ -36870,7 +37022,7 @@
         <v>2.0402787173078338</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519">
         <f>'[1]Metabolism Data'!A201</f>
         <v>200</v>
@@ -36904,7 +37056,7 @@
         <v>3.7082608408644782</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520">
         <f>'[1]Metabolism Data'!A202</f>
         <v>201</v>
@@ -36938,7 +37090,7 @@
         <v>3.6164179950827768</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521">
         <f>'[1]Metabolism Data'!A203</f>
         <v>202</v>
@@ -36972,7 +37124,7 @@
         <v>2.5414323430536983</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522">
         <f>'[1]Metabolism Data'!A204</f>
         <v>203</v>
@@ -37009,8 +37161,16 @@
         <f>AVERAGE(H522:H529)</f>
         <v>4.4510272139095344</v>
       </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L522">
+        <f>AVERAGE(H522:H529,H554:H561)</f>
+        <v>3.7397141347325107</v>
+      </c>
+      <c r="M522">
+        <f>STDEV(H522:H529,H549:H555)/SQRT(COUNT(H522:H529,H549:H555))</f>
+        <v>0.43906333503045197</v>
+      </c>
+    </row>
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523">
         <f>'[1]Metabolism Data'!A205</f>
         <v>204</v>
@@ -37044,7 +37204,7 @@
         <v>1.7648208696319063</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524">
         <f>'[1]Metabolism Data'!A206</f>
         <v>205</v>
@@ -37078,7 +37238,7 @@
         <v>4.0134965703019443</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525">
         <f>'[1]Metabolism Data'!A207</f>
         <v>206</v>
@@ -37112,7 +37272,7 @@
         <v>2.7198568814994837</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526">
         <f>'[1]Metabolism Data'!A208</f>
         <v>207</v>
@@ -37146,7 +37306,7 @@
         <v>8.689738567923488</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527">
         <f>'[1]Metabolism Data'!A209</f>
         <v>208</v>
@@ -37180,7 +37340,7 @@
         <v>4.0028198777859743</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528">
         <f>'[1]Metabolism Data'!A210</f>
         <v>209</v>
@@ -37214,7 +37374,7 @@
         <v>5.6112986306647512</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529">
         <f>'[1]Metabolism Data'!A211</f>
         <v>210</v>
@@ -37248,7 +37408,7 @@
         <v>4.2237513233156996</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530">
         <f>'[1]Metabolism Data'!A180</f>
         <v>179</v>
@@ -37280,7 +37440,7 @@
       <c r="H530" s="2"/>
       <c r="I530" s="2"/>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531">
         <f>'[1]Metabolism Data'!A181</f>
         <v>180</v>
@@ -37312,7 +37472,7 @@
       <c r="H531" s="2"/>
       <c r="I531" s="2"/>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532">
         <f>'[1]Metabolism Data'!A182</f>
         <v>181</v>
@@ -37344,7 +37504,7 @@
       <c r="H532" s="2"/>
       <c r="I532" s="2"/>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533">
         <f>'[1]Metabolism Data'!A183</f>
         <v>182</v>
@@ -37376,7 +37536,7 @@
       <c r="H533" s="2"/>
       <c r="I533" s="2"/>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534">
         <f>'[1]Metabolism Data'!A184</f>
         <v>183</v>
@@ -37408,7 +37568,7 @@
       <c r="H534" s="2"/>
       <c r="I534" s="2"/>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535">
         <f>'[1]Metabolism Data'!A185</f>
         <v>184</v>
@@ -37440,7 +37600,7 @@
       <c r="H535" s="2"/>
       <c r="I535" s="2"/>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536">
         <f>'[1]Metabolism Data'!A186</f>
         <v>185</v>
@@ -37472,7 +37632,7 @@
       <c r="H536" s="2"/>
       <c r="I536" s="2"/>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537">
         <f>'[1]Metabolism Data'!A187</f>
         <v>186</v>
@@ -37504,7 +37664,7 @@
       <c r="H537" s="2"/>
       <c r="I537" s="2"/>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538">
         <f>'[1]Metabolism Data'!A188</f>
         <v>187</v>
@@ -37541,8 +37701,16 @@
         <f>AVERAGE(H538:H545)</f>
         <v>1.6528422570267876</v>
       </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L538">
+        <f>AVERAGE(H538:H545,H569:H576)</f>
+        <v>2.1673031375831413</v>
+      </c>
+      <c r="M538">
+        <f>STDEV(H538:H545,H569:H576)/SQRT(COUNT(H538:H545,H569:H576))</f>
+        <v>0.32487199050934784</v>
+      </c>
+    </row>
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539">
         <f>'[1]Metabolism Data'!A189</f>
         <v>188</v>
@@ -37576,7 +37744,7 @@
         <v>3.3325401081211541</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540">
         <f>'[1]Metabolism Data'!A190</f>
         <v>189</v>
@@ -37610,7 +37778,7 @@
         <v>1.4532914904458747</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541">
         <f>'[1]Metabolism Data'!A191</f>
         <v>190</v>
@@ -37644,7 +37812,7 @@
         <v>1.5006480486242162</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542">
         <f>'[1]Metabolism Data'!A192</f>
         <v>191</v>
@@ -37678,7 +37846,7 @@
         <v>0.63483308035047248</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543">
         <f>'[1]Metabolism Data'!A193</f>
         <v>192</v>
@@ -37712,7 +37880,7 @@
         <v>2.4422567010164524</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544">
         <f>'[1]Metabolism Data'!A194</f>
         <v>193</v>
@@ -38828,7 +38996,7 @@
         <v>4.5752814104387456</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577">
         <f>'[1]Metabolism Data'!A232</f>
         <v>231</v>
@@ -38865,8 +39033,16 @@
         <f>AVERAGE(H577:H584)</f>
         <v>6.2944517057208786</v>
       </c>
-    </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L577">
+        <f>AVERAGE(H577:H584)</f>
+        <v>6.2944517057208786</v>
+      </c>
+      <c r="M577">
+        <f>STDEV(H577:H584)/SQRT(COUNT(H577:H584))</f>
+        <v>1.5394827595446536</v>
+      </c>
+    </row>
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578">
         <f>'[1]Metabolism Data'!A233</f>
         <v>232</v>
@@ -38900,7 +39076,7 @@
         <v>1.1367664456378059</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579">
         <f>'[1]Metabolism Data'!A234</f>
         <v>233</v>
@@ -38934,7 +39110,7 @@
         <v>3.3313437557962371</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580">
         <f>'[1]Metabolism Data'!A235</f>
         <v>234</v>
@@ -38968,7 +39144,7 @@
         <v>12.672307931469202</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581">
         <f>'[1]Metabolism Data'!A236</f>
         <v>235</v>
@@ -39002,7 +39178,7 @@
         <v>10.668590063570118</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582">
         <f>'[1]Metabolism Data'!A237</f>
         <v>236</v>
@@ -39036,7 +39212,7 @@
         <v>0.59503812709074055</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583">
         <f>'[1]Metabolism Data'!A238</f>
         <v>237</v>
@@ -39070,7 +39246,7 @@
         <v>8.0025017157744553</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584">
         <f>'[1]Metabolism Data'!A239</f>
         <v>238</v>
@@ -39103,8 +39279,16 @@
         <f t="shared" si="71"/>
         <v>7.7500224543411473</v>
       </c>
-    </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L584">
+        <f>AVERAGE(H585:H592)</f>
+        <v>2.5927034730224885</v>
+      </c>
+      <c r="M584">
+        <f>STDEV(H585:H592)/SQRT(COUNT(H585:H592))</f>
+        <v>0.70206256049019833</v>
+      </c>
+    </row>
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585">
         <f>'[1]Metabolism Data'!A240</f>
         <v>239</v>
@@ -39142,7 +39326,7 @@
         <v>2.5927034730224885</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586">
         <f>'[1]Metabolism Data'!A241</f>
         <v>240</v>
@@ -39176,7 +39360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587">
         <f>'[1]Metabolism Data'!A242</f>
         <v>241</v>
@@ -39210,7 +39394,7 @@
         <v>2.0719784113664708</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588">
         <f>'[1]Metabolism Data'!A243</f>
         <v>242</v>
@@ -39244,7 +39428,7 @@
         <v>3.154049873931168</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589">
         <f>'[1]Metabolism Data'!A244</f>
         <v>243</v>
@@ -39278,7 +39462,7 @@
         <v>3.3414762790137114</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590">
         <f>'[1]Metabolism Data'!A245</f>
         <v>244</v>
@@ -39312,7 +39496,7 @@
         <v>2.2708247728640929</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591">
         <f>'[1]Metabolism Data'!A246</f>
         <v>245</v>
@@ -39346,7 +39530,7 @@
         <v>5.8945010902975854</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592">
         <f>'[1]Metabolism Data'!A247</f>
         <v>246</v>
@@ -39380,7 +39564,7 @@
         <v>4.0087973567068778</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593">
         <f>'[1]Metabolism Data'!A216</f>
         <v>215</v>
@@ -39412,7 +39596,7 @@
       <c r="H593" s="2"/>
       <c r="I593" s="2"/>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594">
         <f>'[1]Metabolism Data'!A217</f>
         <v>216</v>
@@ -39444,7 +39628,7 @@
       <c r="H594" s="2"/>
       <c r="I594" s="2"/>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595">
         <f>'[1]Metabolism Data'!A218</f>
         <v>217</v>
@@ -39476,7 +39660,7 @@
       <c r="H595" s="2"/>
       <c r="I595" s="2"/>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596">
         <f>'[1]Metabolism Data'!A219</f>
         <v>218</v>
@@ -39507,7 +39691,7 @@
       <c r="H596" s="2"/>
       <c r="I596" s="2"/>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597">
         <f>'[1]Metabolism Data'!A220</f>
         <v>219</v>
@@ -39539,7 +39723,7 @@
       <c r="H597" s="2"/>
       <c r="I597" s="2"/>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598">
         <f>'[1]Metabolism Data'!A221</f>
         <v>220</v>
@@ -39571,7 +39755,7 @@
       <c r="H598" s="2"/>
       <c r="I598" s="2"/>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599">
         <f>'[1]Metabolism Data'!A222</f>
         <v>221</v>
@@ -39599,7 +39783,7 @@
       <c r="H599" s="2"/>
       <c r="I599" s="2"/>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600">
         <f>'[1]Metabolism Data'!A223</f>
         <v>222</v>
@@ -39627,7 +39811,7 @@
       <c r="H600" s="2"/>
       <c r="I600" s="2"/>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601">
         <f>'[1]Metabolism Data'!A224</f>
         <v>223</v>
@@ -39664,8 +39848,16 @@
         <f>AVERAGE(H601:H608)</f>
         <v>8.0699321053449715</v>
       </c>
-    </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L601">
+        <f>AVERAGE(H601:H608)</f>
+        <v>8.0699321053449715</v>
+      </c>
+      <c r="M601">
+        <f>STDEV(H601:H608)/SQRT(COUNT(H601:H608))</f>
+        <v>2.7140978740058279</v>
+      </c>
+    </row>
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602">
         <f>'[1]Metabolism Data'!A225</f>
         <v>224</v>
@@ -39699,7 +39891,7 @@
         <v>5.8132982596548306</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603">
         <f>'[1]Metabolism Data'!A226</f>
         <v>225</v>
@@ -39733,7 +39925,7 @@
         <v>1.4326955565869843</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604">
         <f>'[1]Metabolism Data'!A227</f>
         <v>226</v>
@@ -39767,7 +39959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605">
         <f>'[1]Metabolism Data'!A228</f>
         <v>227</v>
@@ -39801,7 +39993,7 @@
         <v>5.6780152145365053</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606">
         <f>'[1]Metabolism Data'!A229</f>
         <v>228</v>
@@ -39835,7 +40027,7 @@
         <v>23.662054505945807</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607">
         <f>'[1]Metabolism Data'!A230</f>
         <v>229</v>
@@ -39869,7 +40061,7 @@
         <v>14.421912114730207</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608">
         <f>'[1]Metabolism Data'!A231</f>
         <v>230</v>
@@ -39903,7 +40095,7 @@
         <v>8.4657342146766279</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609">
         <f>'[1]Metabolism Data'!A6</f>
         <v>5</v>
@@ -39940,8 +40132,16 @@
         <f>AVERAGE(H609:H611)</f>
         <v>2.2746223635685556</v>
       </c>
-    </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L609">
+        <f>AVERAGE(H609:H611,H625:H626)</f>
+        <v>2.0897295121883674</v>
+      </c>
+      <c r="M609">
+        <f>STDEV(H609:H611,H625:H626)/SQRT(COUNT(H609:H611,H625:H626))</f>
+        <v>0.14563397334834557</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610">
         <f>'[1]Metabolism Data'!A7</f>
         <v>6</v>
@@ -39975,7 +40175,7 @@
         <v>2.5480128299274956</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611">
         <f>'[1]Metabolism Data'!A8</f>
         <v>7</v>
@@ -40009,7 +40209,7 @@
         <v>2.0641872117214954</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A612">
         <f>'[1]Metabolism Data'!A9</f>
         <v>8</v>
@@ -40046,8 +40246,16 @@
         <f>AVERAGE(H612:H616)</f>
         <v>2.1562708513813122</v>
       </c>
-    </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L612">
+        <f>AVERAGE(H612:H616,H627)</f>
+        <v>2.082336589043825</v>
+      </c>
+      <c r="M612">
+        <f>STDEV(H612:H616,H627)/SQRT(COUNT(H612:H616,H644:H650))</f>
+        <v>6.7254869585514729E-2</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613">
         <f>'[1]Metabolism Data'!A10</f>
         <v>9</v>
@@ -40081,7 +40289,7 @@
         <v>2.1231276702725554</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614">
         <f>'[1]Metabolism Data'!A11</f>
         <v>10</v>
@@ -40115,7 +40323,7 @@
         <v>2.1008003486661209</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615">
         <f>'[1]Metabolism Data'!A12</f>
         <v>11</v>
@@ -40149,7 +40357,7 @@
         <v>2.2226315186386594</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616">
         <f>'[1]Metabolism Data'!A13</f>
         <v>12</v>
@@ -40183,7 +40391,7 @@
         <v>2.2913524899623847</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617">
         <f>'[1]Metabolism Data'!A14</f>
         <v>13</v>
@@ -40215,7 +40423,7 @@
       <c r="H617" s="2"/>
       <c r="I617" s="2"/>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618">
         <f>'[1]Metabolism Data'!A15</f>
         <v>14</v>
@@ -40247,7 +40455,7 @@
       <c r="H618" s="2"/>
       <c r="I618" s="2"/>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619">
         <f>'[1]Metabolism Data'!A16</f>
         <v>15</v>
@@ -40279,7 +40487,7 @@
       <c r="H619" s="2"/>
       <c r="I619" s="2"/>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620">
         <f>'[1]Metabolism Data'!A17</f>
         <v>16</v>
@@ -40311,7 +40519,7 @@
       <c r="H620" s="2"/>
       <c r="I620" s="2"/>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621">
         <f>'[1]Metabolism Data'!A2</f>
         <v>1</v>
@@ -40348,8 +40556,16 @@
         <f>AVERAGE(H621:H624)</f>
         <v>2.499944259603903</v>
       </c>
-    </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L621">
+        <f>AVERAGE(H621:H624,H629:H631)</f>
+        <v>2.2214334277809491</v>
+      </c>
+      <c r="M621">
+        <f>STDEV(H621:H624,H629:H631)/SQRT(COUNT(H621:H624,H629:H631))</f>
+        <v>0.22882576071267208</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622">
         <f>'[1]Metabolism Data'!A3</f>
         <v>2</v>
@@ -40383,7 +40599,7 @@
         <v>3.2140055178491105</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623">
         <f>'[1]Metabolism Data'!A4</f>
         <v>3</v>
@@ -40417,7 +40633,7 @@
         <v>2.1710159255801353</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624">
         <f>'[1]Metabolism Data'!A5</f>
         <v>4</v>
@@ -40451,7 +40667,7 @@
         <v>1.7737059823733599</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625">
         <f>'[1]Metabolism Data'!A26</f>
         <v>25</v>
@@ -40489,7 +40705,7 @@
         <v>1.8123902351180861</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626">
         <f>'[1]Metabolism Data'!A27</f>
         <v>26</v>
@@ -40523,7 +40739,7 @@
         <v>1.6627136448907547</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627">
         <f>'[1]Metabolism Data'!A28</f>
         <v>27</v>
@@ -40561,7 +40777,7 @@
         <v>1.7126652773563902</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628">
         <f>'[1]Metabolism Data'!A29</f>
         <v>28</v>
@@ -40593,7 +40809,7 @@
       <c r="H628" s="2"/>
       <c r="I628" s="2"/>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629">
         <f>'[1]Metabolism Data'!A23</f>
         <v>22</v>
@@ -40631,7 +40847,7 @@
         <v>1.8500856520170104</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630">
         <f>'[1]Metabolism Data'!A24</f>
         <v>23</v>
@@ -40665,7 +40881,7 @@
         <v>2.1468357613372837</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631">
         <f>'[1]Metabolism Data'!A25</f>
         <v>24</v>
@@ -40699,7 +40915,7 @@
         <v>1.9032767093480034</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632">
         <f>'[1]Metabolism Data'!A116</f>
         <v>115</v>
@@ -40736,8 +40952,16 @@
         <f>AVERAGE(H632:H639)</f>
         <v>2.2504402032490898</v>
       </c>
-    </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L632">
+        <f>AVERAGE(H632:H639,H663:H670)</f>
+        <v>2.8014501978987005</v>
+      </c>
+      <c r="M632">
+        <f>STDEV(H632:H639,H663:H670)/SQRT(COUNT(H632:H639,H663:H670))</f>
+        <v>0.1813769096429492</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633">
         <f>'[1]Metabolism Data'!A117</f>
         <v>116</v>
@@ -40771,7 +40995,7 @@
         <v>2.349620608205985</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634">
         <f>'[1]Metabolism Data'!A118</f>
         <v>117</v>
@@ -40805,7 +41029,7 @@
         <v>2.3683886966473238</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635">
         <f>'[1]Metabolism Data'!A119</f>
         <v>118</v>
@@ -40839,7 +41063,7 @@
         <v>2.1579095510584301</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636">
         <f>'[1]Metabolism Data'!A120</f>
         <v>119</v>
@@ -40873,7 +41097,7 @@
         <v>2.3390129216283024</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637">
         <f>'[1]Metabolism Data'!A121</f>
         <v>120</v>
@@ -40907,7 +41131,7 @@
         <v>1.891206689701652</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638">
         <f>'[1]Metabolism Data'!A122</f>
         <v>121</v>
@@ -40941,7 +41165,7 @@
         <v>2.0286222344555029</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639">
         <f>'[1]Metabolism Data'!A123</f>
         <v>122</v>
@@ -40975,7 +41199,7 @@
         <v>2.4387332253553047</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640">
         <f>'[1]Metabolism Data'!A124</f>
         <v>123</v>
@@ -41012,8 +41236,16 @@
         <f>AVERAGE(H640:H647)</f>
         <v>2.1984597933575283</v>
       </c>
-    </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L640">
+        <f>AVERAGE(H640:H647,H671:H678)</f>
+        <v>3.6033448823923808</v>
+      </c>
+      <c r="M640">
+        <f>STDEV(H640:H647,H671:H678)/SQRT(COUNT(H640:H647,H671:H678))</f>
+        <v>0.66564763946705852</v>
+      </c>
+    </row>
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641">
         <f>'[1]Metabolism Data'!A125</f>
         <v>124</v>
@@ -41047,7 +41279,7 @@
         <v>2.2147031694571484</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642">
         <f>'[1]Metabolism Data'!A126</f>
         <v>125</v>
@@ -41081,7 +41313,7 @@
         <v>2.2964724023640146</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643">
         <f>'[1]Metabolism Data'!A127</f>
         <v>126</v>
@@ -41115,7 +41347,7 @@
         <v>2.0739984423163556</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644">
         <f>'[1]Metabolism Data'!A128</f>
         <v>127</v>
@@ -41149,7 +41381,7 @@
         <v>2.3614814819421457</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645">
         <f>'[1]Metabolism Data'!A129</f>
         <v>128</v>
@@ -41183,7 +41415,7 @@
         <v>1.4853278628009214</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646">
         <f>'[1]Metabolism Data'!A130</f>
         <v>129</v>
@@ -41217,7 +41449,7 @@
         <v>2.6059450194598255</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647">
         <f>'[1]Metabolism Data'!A131</f>
         <v>130</v>
@@ -41251,7 +41483,7 @@
         <v>2.3265935978200742</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648">
         <f>'[1]Metabolism Data'!A132</f>
         <v>131</v>
@@ -41283,7 +41515,7 @@
       <c r="H648" s="2"/>
       <c r="I648" s="2"/>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649">
         <f>'[1]Metabolism Data'!A133</f>
         <v>132</v>
@@ -41315,7 +41547,7 @@
       <c r="H649" s="2"/>
       <c r="I649" s="2"/>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650">
         <f>'[1]Metabolism Data'!A134</f>
         <v>133</v>
@@ -41347,7 +41579,7 @@
       <c r="H650" s="2"/>
       <c r="I650" s="2"/>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651">
         <f>'[1]Metabolism Data'!A135</f>
         <v>134</v>
@@ -41379,7 +41611,7 @@
       <c r="H651" s="2"/>
       <c r="I651" s="2"/>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A652">
         <f>'[1]Metabolism Data'!A136</f>
         <v>135</v>
@@ -41411,7 +41643,7 @@
       <c r="H652" s="2"/>
       <c r="I652" s="2"/>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653">
         <f>'[1]Metabolism Data'!A137</f>
         <v>136</v>
@@ -41443,7 +41675,7 @@
       <c r="H653" s="2"/>
       <c r="I653" s="2"/>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654">
         <f>'[1]Metabolism Data'!A138</f>
         <v>137</v>
@@ -41475,7 +41707,7 @@
       <c r="H654" s="2"/>
       <c r="I654" s="2"/>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A655">
         <f>'[1]Metabolism Data'!A139</f>
         <v>138</v>
@@ -41507,7 +41739,7 @@
       <c r="H655" s="2"/>
       <c r="I655" s="2"/>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A656">
         <f>'[1]Metabolism Data'!A109</f>
         <v>108</v>
@@ -41543,6 +41775,14 @@
       <c r="I656">
         <f>AVERAGE(H656:H662)</f>
         <v>2.1025280896564231</v>
+      </c>
+      <c r="L656">
+        <f>AVERAGE(H656:H662,H687:H693)</f>
+        <v>2.2745886155752126</v>
+      </c>
+      <c r="M656">
+        <f>STDEV(H656:H662,H687:H693)/SQRT(COUNT(H656:H662,H687:H693))</f>
+        <v>0.16517470676901427</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.25">
@@ -42629,7 +42869,7 @@
         <v>3.3430065548307328</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689">
         <f>'[1]Metabolism Data'!A75</f>
         <v>74</v>
@@ -42663,7 +42903,7 @@
         <v>2.8515752486788828</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690">
         <f>'[1]Metabolism Data'!A76</f>
         <v>75</v>
@@ -42697,7 +42937,7 @@
         <v>1.2378606121595459</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691">
         <f>'[1]Metabolism Data'!A77</f>
         <v>76</v>
@@ -42731,7 +42971,7 @@
         <v>2.4278638979448441</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692">
         <f>'[1]Metabolism Data'!A78</f>
         <v>77</v>
@@ -42765,7 +43005,7 @@
         <v>2.907934290523313</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693">
         <f>'[1]Metabolism Data'!A79</f>
         <v>78</v>
@@ -42799,7 +43039,7 @@
         <v>1.473593901357519</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694">
         <f>'[1]Metabolism Data'!A44</f>
         <v>43</v>
@@ -42836,8 +43076,16 @@
         <f>AVERAGE(H694:H701)</f>
         <v>9.5564559214695901</v>
       </c>
-    </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L694">
+        <f>AVERAGE(H694:H701)</f>
+        <v>9.5564559214695901</v>
+      </c>
+      <c r="M694">
+        <f>STDEV(H694:H701)/SQRT(COUNT(H694:H701))</f>
+        <v>0.76040706240249667</v>
+      </c>
+    </row>
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695">
         <f>'[1]Metabolism Data'!A45</f>
         <v>44</v>
@@ -42871,7 +43119,7 @@
         <v>7.8526914488268504</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696">
         <f>'[1]Metabolism Data'!A46</f>
         <v>45</v>
@@ -42905,7 +43153,7 @@
         <v>6.8882426096960625</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697">
         <f>'[1]Metabolism Data'!A47</f>
         <v>46</v>
@@ -42939,7 +43187,7 @@
         <v>8.3834486515808813</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698">
         <f>'[1]Metabolism Data'!A48</f>
         <v>47</v>
@@ -42973,7 +43221,7 @@
         <v>9.0153850654670507</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699">
         <f>'[1]Metabolism Data'!A49</f>
         <v>48</v>
@@ -43007,7 +43255,7 @@
         <v>13.835791997963307</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700">
         <f>'[1]Metabolism Data'!A50</f>
         <v>49</v>
@@ -43041,7 +43289,7 @@
         <v>10.42173662329156</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701">
         <f>'[1]Metabolism Data'!A51</f>
         <v>50</v>
@@ -43074,8 +43322,16 @@
         <f t="shared" si="78"/>
         <v>9.2575011144516655</v>
       </c>
-    </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L701">
+        <f>AVERAGE(H702:H709)</f>
+        <v>8.9242093275067536</v>
+      </c>
+      <c r="M701">
+        <f>STDEV(H702:H709)/SQRT(COUNT(H702:H709))</f>
+        <v>0.7195716960669547</v>
+      </c>
+    </row>
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702">
         <f>'[1]Metabolism Data'!A52</f>
         <v>51</v>
@@ -43113,7 +43369,7 @@
         <v>8.9242093275067536</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703">
         <f>'[1]Metabolism Data'!A53</f>
         <v>52</v>
@@ -43147,7 +43403,7 @@
         <v>11.572253518743524</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704">
         <f>'[1]Metabolism Data'!A54</f>
         <v>53</v>
@@ -43181,7 +43437,7 @@
         <v>7.107254526096539</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705">
         <f>'[1]Metabolism Data'!A55</f>
         <v>54</v>
@@ -43215,7 +43471,7 @@
         <v>5.6396284490352029</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706">
         <f>'[1]Metabolism Data'!A56</f>
         <v>55</v>
@@ -43249,7 +43505,7 @@
         <v>11.273598569094315</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707">
         <f>'[1]Metabolism Data'!A57</f>
         <v>56</v>
@@ -43283,7 +43539,7 @@
         <v>7.8507089038195836</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708">
         <f>'[1]Metabolism Data'!A58</f>
         <v>57</v>
@@ -43317,7 +43573,7 @@
         <v>9.3956085290745932</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709">
         <f>'[1]Metabolism Data'!A59</f>
         <v>58</v>
@@ -43351,7 +43607,7 @@
         <v>9.8898164343429489</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710">
         <f>'[1]Metabolism Data'!A60</f>
         <v>59</v>
@@ -43383,7 +43639,7 @@
       <c r="H710" s="2"/>
       <c r="I710" s="2"/>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711">
         <f>'[1]Metabolism Data'!A61</f>
         <v>60</v>
@@ -43415,7 +43671,7 @@
       <c r="H711" s="2"/>
       <c r="I711" s="2"/>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712">
         <f>'[1]Metabolism Data'!A62</f>
         <v>61</v>
@@ -43447,7 +43703,7 @@
       <c r="H712" s="2"/>
       <c r="I712" s="2"/>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713">
         <f>'[1]Metabolism Data'!A63</f>
         <v>62</v>
@@ -43479,7 +43735,7 @@
       <c r="H713" s="2"/>
       <c r="I713" s="2"/>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714">
         <f>'[1]Metabolism Data'!A64</f>
         <v>63</v>
@@ -43511,7 +43767,7 @@
       <c r="H714" s="2"/>
       <c r="I714" s="2"/>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715">
         <f>'[1]Metabolism Data'!A65</f>
         <v>64</v>
@@ -43543,7 +43799,7 @@
       <c r="H715" s="2"/>
       <c r="I715" s="2"/>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716">
         <f>'[1]Metabolism Data'!A66</f>
         <v>65</v>
@@ -43575,7 +43831,7 @@
       <c r="H716" s="2"/>
       <c r="I716" s="2"/>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717">
         <f>'[1]Metabolism Data'!A67</f>
         <v>66</v>
@@ -43607,7 +43863,7 @@
       <c r="H717" s="2"/>
       <c r="I717" s="2"/>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718">
         <f>'[1]Metabolism Data'!A36</f>
         <v>35</v>
@@ -43644,8 +43900,16 @@
         <f>AVERAGE(H718:H725)</f>
         <v>11.650794020130302</v>
       </c>
-    </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L718">
+        <f>AVERAGE(H718:H725)</f>
+        <v>11.650794020130302</v>
+      </c>
+      <c r="M718">
+        <f>STDEV(H718:H725)/SQRT(COUNT(H718:H725))</f>
+        <v>1.0803207960088297</v>
+      </c>
+    </row>
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719">
         <f>'[1]Metabolism Data'!A37</f>
         <v>36</v>
@@ -43679,7 +43943,7 @@
         <v>7.4984965483061004</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720">
         <f>'[1]Metabolism Data'!A38</f>
         <v>37</v>
@@ -43904,11 +44168,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DL101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="CR2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CU10" sqref="CU10"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
